--- a/Todo.xlsx
+++ b/Todo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Afgangsprojekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B398A01C-B39C-4D45-ADBE-E4FDC18738E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E675FBD-271C-46D8-86FD-30081F44E818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36170" yWindow="790" windowWidth="11220" windowHeight="12850" xr2:uid="{BA66CC56-D44A-4480-9CC8-12B39CE1E54D}"/>
+    <workbookView xWindow="-31600" yWindow="140" windowWidth="28800" windowHeight="15440" xr2:uid="{BA66CC56-D44A-4480-9CC8-12B39CE1E54D}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Todo:</t>
   </si>
@@ -97,6 +97,15 @@
   </si>
   <si>
     <t>Skriv ind at vi benytter threshold på 0,25 i TF</t>
+  </si>
+  <si>
+    <t>State space</t>
+  </si>
+  <si>
+    <t>PID</t>
+  </si>
+  <si>
+    <t>Skriv kode referencer</t>
   </si>
 </sst>
 </file>
@@ -448,7 +457,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDF1BC5C-AE1F-4724-8234-D08576F0A133}">
-  <dimension ref="A1:A23"/>
+  <dimension ref="A1:A25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
@@ -529,6 +538,11 @@
         <v>20</v>
       </c>
     </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+    </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
@@ -562,6 +576,16 @@
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Todo.xlsx
+++ b/Todo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Afgangsprojekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E675FBD-271C-46D8-86FD-30081F44E818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C86635F8-86FA-499F-8B20-BC2EA9F12449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-31600" yWindow="140" windowWidth="28800" windowHeight="15440" xr2:uid="{BA66CC56-D44A-4480-9CC8-12B39CE1E54D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Todo:</t>
   </si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t>Skriv kode referencer</t>
+  </si>
+  <si>
+    <t>Planlæg oplæsning med kasper</t>
   </si>
 </sst>
 </file>
@@ -457,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDF1BC5C-AE1F-4724-8234-D08576F0A133}">
-  <dimension ref="A1:A25"/>
+  <dimension ref="A1:A26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -588,6 +591,11 @@
         <v>22</v>
       </c>
     </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Todo.xlsx
+++ b/Todo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Afgangsprojekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C86635F8-86FA-499F-8B20-BC2EA9F12449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9005D745-16FC-4965-859F-F56A6A64661A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-31600" yWindow="140" windowWidth="28800" windowHeight="15440" xr2:uid="{BA66CC56-D44A-4480-9CC8-12B39CE1E54D}"/>
+    <workbookView xWindow="-32210" yWindow="-1560" windowWidth="28800" windowHeight="15440" xr2:uid="{BA66CC56-D44A-4480-9CC8-12B39CE1E54D}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Todo:</t>
   </si>
@@ -90,25 +90,37 @@
     <t>Coco Mean precision score</t>
   </si>
   <si>
-    <t>Activationsfunctions</t>
-  </si>
-  <si>
-    <t>Batch normilasation</t>
-  </si>
-  <si>
-    <t>Skriv ind at vi benytter threshold på 0,25 i TF</t>
-  </si>
-  <si>
     <t>State space</t>
   </si>
   <si>
     <t>PID</t>
   </si>
   <si>
-    <t>Skriv kode referencer</t>
-  </si>
-  <si>
     <t>Planlæg oplæsning med kasper</t>
+  </si>
+  <si>
+    <t>https://towardsdatascience.com/batch-normalization-in-3-levels-of-understanding-14c2da90a338#b93c</t>
+  </si>
+  <si>
+    <t>Batch normilization</t>
+  </si>
+  <si>
+    <t>Activationsfunction</t>
+  </si>
+  <si>
+    <t>https://cs231n.github.io/transfer-learning/</t>
+  </si>
+  <si>
+    <t>When and how to fine-tune</t>
+  </si>
+  <si>
+    <t>Loss score</t>
+  </si>
+  <si>
+    <t>https://towardsdatascience.com/intuition-behind-log-loss-score-4e0c9979680a</t>
+  </si>
+  <si>
+    <t>https://machinelearningmastery.com/choose-an-activation-function-for-deep-learning/</t>
   </si>
 </sst>
 </file>
@@ -460,15 +472,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDF1BC5C-AE1F-4724-8234-D08576F0A133}">
-  <dimension ref="A1:A26"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="92.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -536,64 +549,76 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Todo.xlsx
+++ b/Todo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Afgangsprojekt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emila\Documents\Github\Afgangsprojekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9005D745-16FC-4965-859F-F56A6A64661A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B27D3C8C-CA05-4335-9D4F-E16F12480685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32210" yWindow="-1560" windowWidth="28800" windowHeight="15440" xr2:uid="{BA66CC56-D44A-4480-9CC8-12B39CE1E54D}"/>
+    <workbookView xWindow="-38510" yWindow="-5120" windowWidth="38620" windowHeight="21220" xr2:uid="{BA66CC56-D44A-4480-9CC8-12B39CE1E54D}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Todo:</t>
   </si>
@@ -94,9 +94,6 @@
   </si>
   <si>
     <t>PID</t>
-  </si>
-  <si>
-    <t>Planlæg oplæsning med kasper</t>
   </si>
   <si>
     <t>https://towardsdatascience.com/batch-normalization-in-3-levels-of-understanding-14c2da90a338#b93c</t>
@@ -127,7 +124,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,13 +132,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -153,13 +162,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="God" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -472,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDF1BC5C-AE1F-4724-8234-D08576F0A133}">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -555,7 +567,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -575,19 +587,19 @@
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>23</v>
+      <c r="A22" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -602,7 +614,10 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -610,15 +625,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
         <v>26</v>
-      </c>
-      <c r="B28" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
